--- a/public/master/master_tpa.xlsx
+++ b/public/master/master_tpa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen3\Desktop\SANITASI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB13CB4D-0C03-43D0-B760-03651FF832EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D610FD6-A6FD-436F-9031-2006E0D6D9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1AA180D-F767-4128-BE13-8806895311ED}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>NO</t>
   </si>
@@ -36,9 +36,6 @@
     <t>LOKASI (DESA)</t>
   </si>
   <si>
-    <t>TITIK KOORDINAT</t>
-  </si>
-  <si>
     <t>SUMBER ANGGARAN</t>
   </si>
   <si>
@@ -57,12 +54,6 @@
     <t>LUAS SARANA (ha)</t>
   </si>
   <si>
-    <t>Jenis Pengelola (Dinas/UPT)</t>
-  </si>
-  <si>
-    <t>Kondisi TPA</t>
-  </si>
-  <si>
     <t>TAHUN KONSTRUKSI</t>
   </si>
   <si>
@@ -75,29 +66,53 @@
     <t>DAU</t>
   </si>
   <si>
-    <t>PENGELOLA</t>
-  </si>
-  <si>
     <t>DINAS</t>
   </si>
   <si>
     <t>UPT</t>
   </si>
   <si>
-    <t>KONDISI</t>
-  </si>
-  <si>
     <t>BAIK</t>
   </si>
   <si>
-    <t>TIDAK BAIK</t>
+    <t>MASTER FORM IMPORT TPA</t>
+  </si>
+  <si>
+    <t>SUMBER ANGGARAN :</t>
+  </si>
+  <si>
+    <t>KONDISI :</t>
+  </si>
+  <si>
+    <t>LATITUDE</t>
+  </si>
+  <si>
+    <t>LONGITUDE</t>
+  </si>
+  <si>
+    <t>WAJIB</t>
+  </si>
+  <si>
+    <t>TIDAK_BAIK</t>
+  </si>
+  <si>
+    <t>DESKRIPSI PENGELOLA</t>
+  </si>
+  <si>
+    <t>KONDISI TPA</t>
+  </si>
+  <si>
+    <t>JENIS PENGELOLA (DINAS/UPT)</t>
+  </si>
+  <si>
+    <t>JENIS PENGELOLA :</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,13 +139,26 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -161,12 +189,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -484,191 +533,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8554F2-9B40-410B-9227-A7C1EF4F31C4}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16.140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.7109375" style="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="P2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="P3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="N6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:P1"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
